--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220418_111004.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220418_111004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -1368,6 +1368,12 @@
       <c r="F7" t="s">
         <v>179</v>
       </c>
+      <c r="G7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2193,6 +2199,12 @@
       </c>
       <c r="F39" t="s">
         <v>194</v>
+      </c>
+      <c r="G39" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220418_111004.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220418_111004.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-18</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220418_111004.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220418_111004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -1187,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3203,22 +3203,22 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="F78" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="H78" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3229,22 +3229,22 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="G79" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H79" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3255,19 +3255,19 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="F80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G80" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="H80" t="s">
         <v>249</v>
@@ -3281,19 +3281,19 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G81" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H81" t="s">
         <v>249</v>
@@ -3307,22 +3307,22 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="H82" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3333,22 +3333,22 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="G83" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="H83" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3359,22 +3359,22 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H84" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3385,19 +3385,19 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="G85" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H85" t="s">
         <v>249</v>
@@ -3411,19 +3411,19 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H86" t="s">
         <v>249</v>
@@ -3437,19 +3437,19 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="G87" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H87" t="s">
         <v>249</v>
@@ -3463,22 +3463,22 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="F88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G88" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3489,22 +3489,22 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G89" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3515,22 +3515,22 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G90" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="H90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3541,19 +3541,19 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G91" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H91" t="s">
         <v>249</v>
@@ -3567,19 +3567,19 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G92" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H92" t="s">
         <v>249</v>
@@ -3593,19 +3593,19 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G93" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H93" t="s">
         <v>249</v>
@@ -3619,19 +3619,19 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="F94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G94" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="H94" t="s">
         <v>249</v>
@@ -3645,22 +3645,22 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G95" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="H95" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3671,22 +3671,22 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="F96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H96" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3697,19 +3697,19 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G97" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H97" t="s">
         <v>249</v>
@@ -3723,22 +3723,22 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="H98" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3749,22 +3749,22 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H99" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3775,19 +3775,19 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="H100" t="s">
         <v>249</v>
@@ -3801,47 +3801,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G101" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H101" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>175</v>
-      </c>
-      <c r="F102" t="s">
-        <v>231</v>
-      </c>
-      <c r="G102" t="s">
-        <v>250</v>
-      </c>
-      <c r="H102" t="s">
         <v>249</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220418_111004.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220418_111004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="271">
   <si>
     <t>사이트</t>
   </si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>기타</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SSK</t>
@@ -1863,7 +1860,7 @@
         <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H26" t="s">
         <v>249</v>
@@ -1889,7 +1886,7 @@
         <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
         <v>249</v>
@@ -2019,10 +2016,10 @@
         <v>190</v>
       </c>
       <c r="G32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2123,7 +2120,7 @@
         <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H36" t="s">
         <v>249</v>
@@ -2149,10 +2146,10 @@
         <v>193</v>
       </c>
       <c r="G37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2253,7 +2250,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H41" t="s">
         <v>249</v>
@@ -2305,7 +2302,7 @@
         <v>197</v>
       </c>
       <c r="G43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H43" t="s">
         <v>249</v>
@@ -2331,10 +2328,10 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2409,7 +2406,7 @@
         <v>199</v>
       </c>
       <c r="G47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H47" t="s">
         <v>249</v>
@@ -2461,7 +2458,7 @@
         <v>186</v>
       </c>
       <c r="G49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H49" t="s">
         <v>249</v>
@@ -2487,7 +2484,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H50" t="s">
         <v>249</v>
@@ -2591,10 +2588,10 @@
         <v>202</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2617,7 +2614,7 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H55" t="s">
         <v>249</v>
@@ -2643,10 +2640,10 @@
         <v>203</v>
       </c>
       <c r="G56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2747,7 +2744,7 @@
         <v>205</v>
       </c>
       <c r="G60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H60" t="s">
         <v>249</v>
@@ -2825,7 +2822,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H63" t="s">
         <v>249</v>
@@ -2877,7 +2874,7 @@
         <v>208</v>
       </c>
       <c r="G65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H65" t="s">
         <v>249</v>
@@ -2929,7 +2926,7 @@
         <v>209</v>
       </c>
       <c r="G67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H67" t="s">
         <v>249</v>
@@ -2955,7 +2952,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H68" t="s">
         <v>249</v>
@@ -2981,7 +2978,7 @@
         <v>210</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H69" t="s">
         <v>249</v>
@@ -3033,7 +3030,7 @@
         <v>211</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H71" t="s">
         <v>249</v>
@@ -3085,7 +3082,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H73" t="s">
         <v>249</v>
@@ -3163,7 +3160,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H76" t="s">
         <v>249</v>
@@ -3267,7 +3264,7 @@
         <v>214</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H80" t="s">
         <v>249</v>
@@ -3319,10 +3316,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3371,7 +3368,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H84" t="s">
         <v>249</v>
@@ -3397,7 +3394,7 @@
         <v>217</v>
       </c>
       <c r="G85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H85" t="s">
         <v>249</v>
@@ -3423,7 +3420,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H86" t="s">
         <v>249</v>
@@ -3449,7 +3446,7 @@
         <v>218</v>
       </c>
       <c r="G87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H87" t="s">
         <v>249</v>
@@ -3527,7 +3524,7 @@
         <v>221</v>
       </c>
       <c r="G90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H90" t="s">
         <v>249</v>
@@ -3553,7 +3550,7 @@
         <v>222</v>
       </c>
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H91" t="s">
         <v>249</v>
@@ -3579,7 +3576,7 @@
         <v>223</v>
       </c>
       <c r="G92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H92" t="s">
         <v>249</v>
@@ -3605,7 +3602,7 @@
         <v>224</v>
       </c>
       <c r="G93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
         <v>249</v>
@@ -3631,7 +3628,7 @@
         <v>225</v>
       </c>
       <c r="G94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H94" t="s">
         <v>249</v>
@@ -3657,10 +3654,10 @@
         <v>226</v>
       </c>
       <c r="G95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3787,7 +3784,7 @@
         <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H100" t="s">
         <v>249</v>
@@ -3813,7 +3810,7 @@
         <v>231</v>
       </c>
       <c r="G101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H101" t="s">
         <v>249</v>
